--- a/MANALO, STEPHANIE CONCEPCION.xlsx
+++ b/MANALO, STEPHANIE CONCEPCION.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF775D-5A15-4AC8-A447-32C865BC7A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -178,11 +177,14 @@
   <si>
     <t>SL(1-0-0)</t>
   </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -564,45 +566,45 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1054,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1097,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1161,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1221,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1287,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1350,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1448,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1507,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1572,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1615,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1690,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1876,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1942,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2000,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2066,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2122,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2197,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2240,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2306,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2362,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2460,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2523,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,25 +2589,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K70" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K70" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2617,13 +2619,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2632,14 +2634,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2943,7 +2945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2953,7 +2955,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2961,69 +2963,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>44929</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3031,29 +3033,29 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="58"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3061,7 +3063,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3074,24 +3076,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3135,7 +3137,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>3.6669999999999998</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3145,12 +3147,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>2.6669999999999998</v>
+        <v>5.1669999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3172,7 +3174,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>44929</v>
       </c>
@@ -3192,7 +3194,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>44958</v>
       </c>
@@ -3212,7 +3214,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>44986</v>
       </c>
@@ -3238,49 +3240,57 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>45017</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="38"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>45047</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="38"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>45078</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="38">
+        <v>1</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
       <c r="G16" s="13" t="str">
@@ -3290,9 +3300,11 @@
       <c r="H16" s="38"/>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="48">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>45108</v>
       </c>
@@ -3310,7 +3322,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>45139</v>
       </c>
@@ -3328,7 +3340,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>45170</v>
       </c>
@@ -3346,7 +3358,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>45200</v>
       </c>
@@ -3364,7 +3376,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>45231</v>
       </c>
@@ -3382,7 +3394,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>45261</v>
       </c>
@@ -3400,7 +3412,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>45292</v>
       </c>
@@ -3418,7 +3430,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>45323</v>
       </c>
@@ -3436,7 +3448,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>45352</v>
       </c>
@@ -3454,7 +3466,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>45383</v>
       </c>
@@ -3472,7 +3484,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>45413</v>
       </c>
@@ -3490,7 +3502,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>45444</v>
       </c>
@@ -3508,7 +3520,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>45474</v>
       </c>
@@ -3526,7 +3538,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>45505</v>
       </c>
@@ -3544,7 +3556,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>45536</v>
       </c>
@@ -3562,7 +3574,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>45566</v>
       </c>
@@ -3580,7 +3592,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>45597</v>
       </c>
@@ -3598,7 +3610,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>45627</v>
       </c>
@@ -3616,7 +3628,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>45658</v>
       </c>
@@ -3634,7 +3646,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>45689</v>
       </c>
@@ -3652,7 +3664,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>45717</v>
       </c>
@@ -3670,7 +3682,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>45748</v>
       </c>
@@ -3688,7 +3700,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>45778</v>
       </c>
@@ -3706,7 +3718,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>45809</v>
       </c>
@@ -3724,7 +3736,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>45839</v>
       </c>
@@ -3742,7 +3754,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>45870</v>
       </c>
@@ -3760,7 +3772,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>45901</v>
       </c>
@@ -3778,7 +3790,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>45931</v>
       </c>
@@ -3796,7 +3808,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>45962</v>
       </c>
@@ -3814,7 +3826,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3830,7 +3842,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3846,7 +3858,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3862,7 +3874,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3878,7 +3890,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3894,7 +3906,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3910,7 +3922,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3926,7 +3938,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3942,7 +3954,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3958,7 +3970,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3974,7 +3986,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3990,7 +4002,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4006,7 +4018,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4022,7 +4034,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4038,7 +4050,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4054,7 +4066,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4070,7 +4082,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4086,7 +4098,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4102,7 +4114,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4118,7 +4130,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4134,7 +4146,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4150,7 +4162,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4166,7 +4178,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4182,7 +4194,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4198,7 +4210,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="15"/>
       <c r="C70" s="41"/>
@@ -4216,23 +4228,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4255,7 +4267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4263,36 +4275,36 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
@@ -4315,9 +4327,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -4337,17 +4349,17 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>40</v>
       </c>
@@ -4364,17 +4376,17 @@
         <v>28</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM('LEAVE CREDITS'!E9,'LEAVE CREDITS'!I9)</f>
-        <v>6.3339999999999996</v>
+        <v>10.334</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -4402,7 +4414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4428,7 +4440,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4454,7 +4466,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4480,7 +4492,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4506,7 +4518,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4532,7 +4544,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -4558,7 +4570,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -4584,7 +4596,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4624,7 +4636,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4665,7 +4677,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -4686,7 +4698,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4728,7 +4740,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4770,7 +4782,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4791,7 +4803,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4833,7 +4845,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4854,7 +4866,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4875,7 +4887,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4896,7 +4908,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4917,7 +4929,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -4938,7 +4950,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -4959,7 +4971,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -4980,7 +4992,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5001,7 +5013,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5022,7 +5034,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5043,7 +5055,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5073,7 +5085,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5082,7 +5094,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5091,7 +5103,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5100,7 +5112,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5109,7 +5121,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5118,7 +5130,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5127,7 +5139,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5136,7 +5148,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5145,7 +5157,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5154,7 +5166,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5163,7 +5175,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5172,7 +5184,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5181,7 +5193,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5190,7 +5202,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5199,7 +5211,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5208,7 +5220,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5217,7 +5229,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5226,7 +5238,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5235,7 +5247,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5244,7 +5256,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5253,7 +5265,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5262,7 +5274,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5271,7 +5283,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5280,7 +5292,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5289,7 +5301,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5298,7 +5310,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5307,7 +5319,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5316,7 +5328,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5325,7 +5337,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/MANALO, STEPHANIE CONCEPCION.xlsx
+++ b/MANALO, STEPHANIE CONCEPCION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -573,6 +573,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -585,20 +594,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,7 +1054,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1097,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1161,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1572,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1615,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1690,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1876,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1942,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2000,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2066,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2122,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2197,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2240,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2362,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2460,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2523,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,7 +2972,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,14 +3002,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3022,16 +3022,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="60">
         <v>44929</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3044,16 +3044,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="61"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3079,18 +3079,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3137,7 +3137,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>5.1669999999999998</v>
+        <v>7.9169999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3147,7 +3147,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>5.1669999999999998</v>
+        <v>8.9169999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3287,15 +3287,17 @@
       <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D16" s="38">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="9"/>
@@ -3309,13 +3311,15 @@
         <v>45108</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="38"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="9"/>
@@ -3327,13 +3331,15 @@
         <v>45139</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="38"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="9"/>
@@ -3344,9 +3350,13 @@
       <c r="A19" s="39">
         <v>45170</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13" t="str">
@@ -3356,7 +3366,9 @@
       <c r="H19" s="38"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="48">
+        <v>45195</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
@@ -4228,17 +4240,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4386,7 +4398,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM('LEAVE CREDITS'!E9,'LEAVE CREDITS'!I9)</f>
-        <v>10.334</v>
+        <v>16.834</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/MANALO, STEPHANIE CONCEPCION.xlsx
+++ b/MANALO, STEPHANIE CONCEPCION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A9FA2-141A-446C-8E81-CC356B53932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE9B30-B5D9-4ED8-84BE-3413258AE957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/18,21,22/2023</t>
   </si>
 </sst>
 </file>
@@ -571,32 +583,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2587,7 +2599,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K70" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K71" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -2965,12 +2977,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K70"/>
+  <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3000,14 +3012,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3020,16 +3032,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="56">
         <v>44929</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3042,16 +3054,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3077,18 +3089,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3135,7 +3147,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>8.1669999999999998</v>
+        <v>11.917</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3145,7 +3157,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>10.167</v>
+        <v>10.917</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3377,15 +3389,17 @@
       <c r="B20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="38">
         <v>1</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="9"/>
@@ -3399,13 +3413,15 @@
         <v>45260</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="38"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="9"/>
@@ -3416,23 +3432,31 @@
       <c r="A22" s="39">
         <v>45291</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="38"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H22" s="38"/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="38">
+        <v>3</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="39">
-        <v>45322</v>
+      <c r="A23" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -3450,9 +3474,11 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
-        <v>45351</v>
-      </c>
-      <c r="B24" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="38"/>
       <c r="E24" s="9"/>
@@ -3464,11 +3490,13 @@
       <c r="H24" s="38"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3486,7 +3514,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3504,7 +3532,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3522,7 +3550,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3540,7 +3568,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3558,7 +3586,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3576,7 +3604,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3594,7 +3622,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3612,7 +3640,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3630,7 +3658,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3648,7 +3676,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3666,7 +3694,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3684,7 +3712,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3702,7 +3730,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3720,7 +3748,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3738,7 +3766,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3756,7 +3784,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3774,7 +3802,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3792,7 +3820,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3810,7 +3838,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3828,7 +3856,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3845,7 +3873,9 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
+      <c r="A46" s="39">
+        <v>45991</v>
+      </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
       <c r="D46" s="38"/>
@@ -4229,34 +4259,50 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="42"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="41" t="str">
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="42"/>
+      <c r="H70" s="38"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="15"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="41" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="42"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4404,7 +4450,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="49">
         <f>SUM('LEAVE CREDITS'!E9,'LEAVE CREDITS'!I9)</f>
-        <v>18.334</v>
+        <v>22.834</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/MANALO, STEPHANIE CONCEPCION.xlsx
+++ b/MANALO, STEPHANIE CONCEPCION.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE9B30-B5D9-4ED8-84BE-3413258AE957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>PERIOD</t>
   </si>
@@ -193,11 +192,14 @@
   <si>
     <t>12/18,21,22/2023</t>
   </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -583,6 +585,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -595,20 +606,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,7 +1066,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1109,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,7 +1173,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1233,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1299,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1362,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1460,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1519,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1584,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1627,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1702,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1888,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1954,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2012,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2078,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2134,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2209,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2252,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2318,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2374,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2472,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2535,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2584,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2599,25 +2601,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K71" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K72" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2629,13 +2631,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2644,14 +2646,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2955,7 +2957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2965,7 +2967,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2973,34 +2975,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K71"/>
+  <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3012,16 +3014,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3032,18 +3034,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="59">
         <v>44929</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3054,18 +3056,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3073,7 +3075,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3086,24 +3088,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3147,7 +3149,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>11.917</v>
+        <v>11.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3157,12 +3159,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>10.917</v>
+        <v>12.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3184,7 +3186,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>44929</v>
       </c>
@@ -3204,7 +3206,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>44985</v>
       </c>
@@ -3224,7 +3226,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>45016</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>45046</v>
       </c>
@@ -3270,7 +3272,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>45077</v>
       </c>
@@ -3290,7 +3292,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>45107</v>
       </c>
@@ -3316,7 +3318,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>45138</v>
       </c>
@@ -3336,7 +3338,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>45169</v>
       </c>
@@ -3356,7 +3358,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>45199</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>45230</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>45260</v>
       </c>
@@ -3428,7 +3430,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>45291</v>
       </c>
@@ -3454,13 +3456,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="20"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="38">
+        <v>2</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -3472,13 +3476,11 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
-        <v>45322</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>49</v>
-      </c>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="38"/>
       <c r="E24" s="9"/>
@@ -3490,31 +3492,35 @@
       <c r="H24" s="38"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="48">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
-        <v>45351</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+        <v>45322</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="38"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="48">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3530,9 +3536,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3548,9 +3554,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3566,9 +3572,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3584,9 +3590,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3602,9 +3608,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3620,9 +3626,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3638,9 +3644,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3656,9 +3662,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3674,9 +3680,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3692,9 +3698,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3710,9 +3716,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3728,9 +3734,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3746,9 +3752,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3764,9 +3770,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3782,9 +3788,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3800,9 +3806,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3818,9 +3824,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3836,9 +3842,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3854,9 +3860,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3872,9 +3878,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3890,8 +3896,10 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="39">
+        <v>45991</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="38"/>
@@ -3906,7 +3914,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3922,7 +3930,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3938,7 +3946,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3954,7 +3962,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3970,7 +3978,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3986,7 +3994,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4002,7 +4010,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4018,7 +4026,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4034,7 +4042,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4050,7 +4058,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4066,7 +4074,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4082,7 +4090,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4098,7 +4106,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4114,7 +4122,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4130,7 +4138,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4146,7 +4154,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4162,7 +4170,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4178,7 +4186,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4194,7 +4202,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4210,7 +4218,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4226,7 +4234,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4242,7 +4250,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4258,7 +4266,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4274,41 +4282,57 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="42"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="41" t="str">
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H71" s="42"/>
+      <c r="H71" s="38"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="15"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="41" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="42"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4331,7 +4355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4339,21 +4363,21 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>31</v>
       </c>
@@ -4366,7 +4390,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="D2" s="7" t="s">
@@ -4391,7 +4415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3"/>
@@ -4413,17 +4437,17 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>40</v>
       </c>
@@ -4447,10 +4471,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM('LEAVE CREDITS'!E9,'LEAVE CREDITS'!I9)</f>
-        <v>22.834</v>
+        <v>23.334000000000003</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -4478,7 +4502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4504,7 +4528,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4530,7 +4554,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4556,7 +4580,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4582,7 +4606,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4608,7 +4632,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -4634,7 +4658,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -4660,7 +4684,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -4680,7 +4704,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4700,7 +4724,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -4720,7 +4744,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4741,7 +4765,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -4762,7 +4786,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4783,7 +4807,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4804,7 +4828,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4825,7 +4849,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4846,7 +4870,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4867,7 +4891,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4888,7 +4912,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4909,7 +4933,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4930,7 +4954,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4951,7 +4975,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4972,7 +4996,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4993,7 +5017,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5014,7 +5038,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5035,7 +5059,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5056,7 +5080,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5077,7 +5101,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5098,7 +5122,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5119,7 +5143,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5140,7 +5164,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5149,7 +5173,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5158,7 +5182,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5167,7 +5191,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5176,7 +5200,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5185,7 +5209,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5194,7 +5218,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5203,7 +5227,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5212,7 +5236,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5221,7 +5245,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5230,7 +5254,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5239,7 +5263,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5248,7 +5272,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5257,7 +5281,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5266,7 +5290,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5275,7 +5299,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5284,7 +5308,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5293,7 +5317,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5302,7 +5326,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5311,7 +5335,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5320,7 +5344,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5329,7 +5353,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5338,7 +5362,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5347,7 +5371,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5356,7 +5380,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5365,7 +5389,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5374,7 +5398,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5383,7 +5407,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5392,7 +5416,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5401,7 +5425,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
